--- a/output/sites/test_differences_sites_with_and_without_all_scats.xlsx
+++ b/output/sites/test_differences_sites_with_and_without_all_scats.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">scat_compo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">Fe</t>
@@ -392,51 +395,60 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.688</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.049</v>
+        <v>0.992</v>
       </c>
       <c r="D2" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.676</v>
+        <v>0.063</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.977</v>
+        <v>0.999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.934</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.934</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.938</v>
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/sites/test_differences_sites_with_and_without_all_scats.xlsx
+++ b/output/sites/test_differences_sites_with_and_without_all_scats.xlsx
@@ -407,22 +407,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.992</v>
+        <v>0.9941</v>
       </c>
       <c r="D2" t="n">
-        <v>0.619</v>
+        <v>0.8295</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.063</v>
+        <v>0.5033</v>
       </c>
       <c r="H2" t="n">
-        <v>0.991</v>
+        <v>0.9936</v>
       </c>
     </row>
     <row r="3">
@@ -433,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>

--- a/output/sites/test_differences_sites_with_and_without_all_scats.xlsx
+++ b/output/sites/test_differences_sites_with_and_without_all_scats.xlsx
@@ -407,22 +407,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9941</v>
+        <v>0.9938</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8295</v>
+        <v>0.8242</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5033</v>
+        <v>0.508</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9936</v>
+        <v>0.9942</v>
       </c>
     </row>
     <row r="3">
@@ -439,10 +439,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9996</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.9998</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
